--- a/biology/Zoologie/Chilochromis_duponti/Chilochromis_duponti.xlsx
+++ b/biology/Zoologie/Chilochromis_duponti/Chilochromis_duponti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chilochromis duponti est une espèce de poissons téléostéens de la famille des Cichlidae. Cette espèce est endémique aux rivières d'Afrique de l'Est. C'est la seule espèce de son genre Chilochromis (monotypique).
 </t>
